--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_DH_Demand_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_DH_Demand_2050.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\JRC_EU_TIMES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF27A6C-445C-4E06-AB22-8090C4303873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32171061-25AF-4F36-BB4D-6AC3C46A57F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F8D9DD-8AB7-498F-A386-8002ED9D0540}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DA463E1D-2AAA-4A0E-8644-2AA74F46C71C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Region</t>
   </si>
@@ -65,12 +63,6 @@
     <t>EE</t>
   </si>
   <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>FI</t>
   </si>
   <si>
@@ -86,6 +78,9 @@
     <t>IE</t>
   </si>
   <si>
+    <t>IS</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
@@ -98,9 +93,6 @@
     <t>LV</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -110,9 +102,6 @@
     <t>PL</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
@@ -126,9 +115,6 @@
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>District heat</t>
   </si>
   <si>
     <t>District heating</t>
@@ -182,14 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,534 +492,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0402A-293A-486E-9B4A-B10CBA3ADB49}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46A6429-C2DC-4057-B885-ADD921827DC4}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>56.891999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B2" s="1">
+        <v>51.380999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>16.177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B3" s="1">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>29.441000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B4" s="1">
+        <v>24.300999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B5" s="1">
+        <v>14.402000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B6" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>103.03399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B7" s="1">
+        <v>38.441999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>478.25199999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="1">
+        <v>253.45099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>106.63600000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B9" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>20.350000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B10" s="1">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>3.1429999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B11" s="1">
+        <v>44.156999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B12" s="1">
+        <v>56.216999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>118.413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B13" s="1">
+        <v>9.7460000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>140.54899999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B14" s="1">
+        <v>29.109000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>9.7460000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B15" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>29.109000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B16" s="1">
+        <v>10.031000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B17" s="1">
+        <v>9.7690000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>112.07000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B18" s="1">
+        <v>21.384999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>33.222000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B19" s="1">
+        <v>1.7570000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>1.885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B20" s="1">
+        <v>19.638000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>22.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B21" s="1">
+        <v>97.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B22" s="1">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>151.94999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B23" s="1">
+        <v>134.58799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>33.256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B24" s="1">
+        <v>69.711000000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>214.71400000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B25" s="1">
+        <v>19.794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>18.620999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B26" s="1">
+        <v>3.9859999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>69.711000000000013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B27" s="1">
+        <v>17.261000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>146.411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>7.6950000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>26.805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45.171000000000006</v>
+      <c r="B28" s="1">
+        <v>28.502000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA58F2CACE833A4EAC3C2718D7553EBC" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="aec9d4db9f94a4e7a09eb83c0739bc84">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7880897e-52c6-4ffd-85c8-5c6950347fc0" xmlns:ns4="8c824e80-41b8-4a07-a4d9-9d9814734933" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f498252f696c0305676dba07191acd81" ns3:_="" ns4:_="">
-    <xsd:import namespace="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
-    <xsd:import namespace="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7880897e-52c6-4ffd-85c8-5c6950347fc0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithDetails" ma:index="8" nillable="true" ma:displayName="Condiviso con dettagli" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="9" nillable="true" ma:displayName="Condiviso con" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hash suggerimento condivisione" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c824e80-41b8-4a07-a4d9-9d9814734933" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25F5CD00-25E9-4F01-93D4-7C79F6C4B34D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
-    <ds:schemaRef ds:uri="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F364AA-2000-49AC-BAA3-627DD9106EBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC188E75-DB5A-4791-9AD2-FBF6FAA2ED64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>